--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H2">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I2">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J2">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N2">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O2">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P2">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q2">
-        <v>3511.182457720797</v>
+        <v>3287.355847262066</v>
       </c>
       <c r="R2">
-        <v>31600.64211948717</v>
+        <v>29586.2026253586</v>
       </c>
       <c r="S2">
-        <v>0.006184703909886434</v>
+        <v>0.002902304908935386</v>
       </c>
       <c r="T2">
-        <v>0.006184703909886437</v>
+        <v>0.002902304908935386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H3">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I3">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J3">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.492958</v>
       </c>
       <c r="O3">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P3">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q3">
-        <v>43.14482898437444</v>
+        <v>37.84311448376666</v>
       </c>
       <c r="R3">
-        <v>388.30346085937</v>
+        <v>340.5880303539</v>
       </c>
       <c r="S3">
-        <v>7.599661815474376E-05</v>
+        <v>3.34105165484642E-05</v>
       </c>
       <c r="T3">
-        <v>7.59966181547438E-05</v>
+        <v>3.341051654846419E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H4">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I4">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J4">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N4">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O4">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P4">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q4">
-        <v>445.3792222820772</v>
+        <v>874.6526803775167</v>
       </c>
       <c r="R4">
-        <v>4008.413000538695</v>
+        <v>7871.87412339765</v>
       </c>
       <c r="S4">
-        <v>0.0007845045509876998</v>
+        <v>0.0007722038275799692</v>
       </c>
       <c r="T4">
-        <v>0.0007845045509877001</v>
+        <v>0.0007722038275799692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H5">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I5">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J5">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N5">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O5">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P5">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q5">
-        <v>72.93694483176944</v>
+        <v>25.52577474308333</v>
       </c>
       <c r="R5">
-        <v>656.4325034859251</v>
+        <v>229.73197268775</v>
       </c>
       <c r="S5">
-        <v>0.0001284733599885414</v>
+        <v>2.253591785718346E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001284733599885415</v>
+        <v>2.253591785718346E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H6">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I6">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J6">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N6">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O6">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P6">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q6">
-        <v>713.8786750686123</v>
+        <v>665.8482449689501</v>
       </c>
       <c r="R6">
-        <v>6424.908075617511</v>
+        <v>5992.63420472055</v>
       </c>
       <c r="S6">
-        <v>0.001257447679249165</v>
+        <v>0.0005878568429362183</v>
       </c>
       <c r="T6">
-        <v>0.001257447679249165</v>
+        <v>0.0005878568429362182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N7">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O7">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P7">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q7">
-        <v>4822.89037127842</v>
+        <v>5148.048030903133</v>
       </c>
       <c r="R7">
-        <v>43406.01334150579</v>
+        <v>46332.4322781282</v>
       </c>
       <c r="S7">
-        <v>0.008495186250036559</v>
+        <v>0.004545052548530566</v>
       </c>
       <c r="T7">
-        <v>0.008495186250036561</v>
+        <v>0.004545052548530566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.492958</v>
       </c>
       <c r="O8">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P8">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q8">
         <v>59.26287875517177</v>
@@ -948,10 +948,10 @@
         <v>533.3659087965459</v>
       </c>
       <c r="S8">
-        <v>0.0001043874427950283</v>
+        <v>5.232136462258264E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001043874427950283</v>
+        <v>5.232136462258264E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N9">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O9">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P9">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q9">
-        <v>611.7640392023478</v>
+        <v>1369.719074584463</v>
       </c>
       <c r="R9">
-        <v>5505.87635282113</v>
+        <v>12327.47167126017</v>
       </c>
       <c r="S9">
-        <v>0.001077579844038837</v>
+        <v>0.001209282651082589</v>
       </c>
       <c r="T9">
-        <v>0.001077579844038838</v>
+        <v>0.001209282651082589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N10">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O10">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P10">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q10">
-        <v>100.1847363887628</v>
+        <v>39.97374197042055</v>
       </c>
       <c r="R10">
-        <v>901.6626274988649</v>
+        <v>359.763677733785</v>
       </c>
       <c r="S10">
-        <v>0.0001764684513879493</v>
+        <v>3.529158172696578E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001764684513879493</v>
+        <v>3.529158172696578E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N11">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O11">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P11">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q11">
-        <v>980.5695459313509</v>
+        <v>1042.728230729153</v>
       </c>
       <c r="R11">
-        <v>8825.125913382159</v>
+        <v>9384.554076562377</v>
       </c>
       <c r="S11">
-        <v>0.001727205116128839</v>
+        <v>0.0009205925379971422</v>
       </c>
       <c r="T11">
-        <v>0.00172720511612884</v>
+        <v>0.000920592537997142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H12">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I12">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J12">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N12">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O12">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P12">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q12">
-        <v>190213.2163722517</v>
+        <v>331177.912173002</v>
       </c>
       <c r="R12">
-        <v>1711918.947350266</v>
+        <v>2980601.209557018</v>
       </c>
       <c r="S12">
-        <v>0.3350473628685137</v>
+        <v>0.2923867463363334</v>
       </c>
       <c r="T12">
-        <v>0.3350473628685138</v>
+        <v>0.2923867463363333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H13">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I13">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J13">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.492958</v>
       </c>
       <c r="O13">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P13">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q13">
-        <v>2337.308524910954</v>
+        <v>3812.426833954075</v>
       </c>
       <c r="R13">
-        <v>21035.77672419859</v>
+        <v>34311.84150558668</v>
       </c>
       <c r="S13">
-        <v>0.004117006548845418</v>
+        <v>0.003365873860098671</v>
       </c>
       <c r="T13">
-        <v>0.004117006548845419</v>
+        <v>0.00336587386009867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H14">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I14">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J14">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N14">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O14">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P14">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q14">
-        <v>24127.77330593012</v>
+        <v>88115.08763348492</v>
       </c>
       <c r="R14">
-        <v>217149.9597533711</v>
+        <v>793035.7887013643</v>
       </c>
       <c r="S14">
-        <v>0.04249939605784665</v>
+        <v>0.07779408840175611</v>
       </c>
       <c r="T14">
-        <v>0.04249939605784666</v>
+        <v>0.0777940884017561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H15">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I15">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J15">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N15">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O15">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P15">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q15">
-        <v>3951.253184894885</v>
+        <v>2571.541743207811</v>
       </c>
       <c r="R15">
-        <v>35561.27866405396</v>
+        <v>23143.8756888703</v>
       </c>
       <c r="S15">
-        <v>0.006959857915624684</v>
+        <v>0.002270334752795417</v>
       </c>
       <c r="T15">
-        <v>0.006959857915624686</v>
+        <v>0.002270334752795416</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H16">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I16">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J16">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N16">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O16">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P16">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q16">
-        <v>38673.34167889035</v>
+        <v>67079.51369990375</v>
       </c>
       <c r="R16">
-        <v>348060.0751100131</v>
+        <v>603715.6232991337</v>
       </c>
       <c r="S16">
-        <v>0.06812040398637312</v>
+        <v>0.05922243010666955</v>
       </c>
       <c r="T16">
-        <v>0.06812040398637313</v>
+        <v>0.05922243010666953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H17">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N17">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O17">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P17">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q17">
-        <v>611.0298697742953</v>
+        <v>736.1968740415003</v>
       </c>
       <c r="R17">
-        <v>5499.268827968657</v>
+        <v>6625.771866373503</v>
       </c>
       <c r="S17">
-        <v>0.001076286655608196</v>
+        <v>0.0006499654740003566</v>
       </c>
       <c r="T17">
-        <v>0.001076286655608196</v>
+        <v>0.0006499654740003566</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H18">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.492958</v>
       </c>
       <c r="O18">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P18">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q18">
-        <v>7.508233922104221</v>
+        <v>8.474891031388443</v>
       </c>
       <c r="R18">
-        <v>67.57410529893799</v>
+        <v>76.27401928249598</v>
       </c>
       <c r="S18">
-        <v>1.32252323123427E-05</v>
+        <v>7.482219445022048E-06</v>
       </c>
       <c r="T18">
-        <v>1.32252323123427E-05</v>
+        <v>7.482219445022047E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H19">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N19">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O19">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P19">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q19">
-        <v>77.5066552274381</v>
+        <v>195.8767468700551</v>
       </c>
       <c r="R19">
-        <v>697.5598970469429</v>
+        <v>1762.890721830496</v>
       </c>
       <c r="S19">
-        <v>0.0001365225873048247</v>
+        <v>0.0001729335278566619</v>
       </c>
       <c r="T19">
-        <v>0.0001365225873048247</v>
+        <v>0.0001729335278566619</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H20">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N20">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O20">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P20">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q20">
-        <v>12.69277584942722</v>
+        <v>5.716447031128888</v>
       </c>
       <c r="R20">
-        <v>114.234982644845</v>
+        <v>51.44802328016</v>
       </c>
       <c r="S20">
-        <v>2.235744264746122E-05</v>
+        <v>5.046874464147986E-06</v>
       </c>
       <c r="T20">
-        <v>2.235744264746122E-05</v>
+        <v>5.046874464147986E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H21">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N21">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O21">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P21">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q21">
-        <v>124.2319928155971</v>
+        <v>149.115404388128</v>
       </c>
       <c r="R21">
-        <v>1118.087935340374</v>
+        <v>1342.038639493152</v>
       </c>
       <c r="S21">
-        <v>0.0002188260225583252</v>
+        <v>0.0001316493833528842</v>
       </c>
       <c r="T21">
-        <v>0.0002188260225583253</v>
+        <v>0.0001316493833528842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H22">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>94.753826</v>
+        <v>101.1420973333333</v>
       </c>
       <c r="N22">
-        <v>284.261478</v>
+        <v>303.426292</v>
       </c>
       <c r="O22">
-        <v>0.7335560900324892</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="P22">
-        <v>0.7335560900324893</v>
+        <v>0.6720924517779291</v>
       </c>
       <c r="Q22">
-        <v>217296.4235657372</v>
+        <v>420909.9413970184</v>
       </c>
       <c r="R22">
-        <v>1955667.812091635</v>
+        <v>3788189.472573166</v>
       </c>
       <c r="S22">
-        <v>0.3827525503484443</v>
+        <v>0.3716083825101294</v>
       </c>
       <c r="T22">
-        <v>0.3827525503484444</v>
+        <v>0.3716083825101294</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H23">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.492958</v>
       </c>
       <c r="O23">
-        <v>0.009013815840103748</v>
+        <v>0.007736938980150513</v>
       </c>
       <c r="P23">
-        <v>0.00901381584010375</v>
+        <v>0.007736938980150512</v>
       </c>
       <c r="Q23">
-        <v>2670.102492977716</v>
+        <v>4845.396677365872</v>
       </c>
       <c r="R23">
-        <v>24030.92243679945</v>
+        <v>43608.57009629285</v>
       </c>
       <c r="S23">
-        <v>0.004703199997996215</v>
+        <v>0.004277851019435774</v>
       </c>
       <c r="T23">
-        <v>0.004703199997996216</v>
+        <v>0.004277851019435773</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H24">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.01913766666667</v>
+        <v>26.91044433333333</v>
       </c>
       <c r="N24">
-        <v>36.057413</v>
+        <v>80.73133300000001</v>
       </c>
       <c r="O24">
-        <v>0.09304860821474602</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="P24">
-        <v>0.09304860821474603</v>
+        <v>0.1788207579957193</v>
       </c>
       <c r="Q24">
-        <v>27563.16804886492</v>
+        <v>111989.7040495528</v>
       </c>
       <c r="R24">
-        <v>248068.5124397843</v>
+        <v>1007907.336445975</v>
       </c>
       <c r="S24">
-        <v>0.048550605174568</v>
+        <v>0.09887224958744392</v>
       </c>
       <c r="T24">
-        <v>0.04855060517456801</v>
+        <v>0.09887224958744392</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H25">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.968298333333333</v>
+        <v>0.7853516666666667</v>
       </c>
       <c r="N25">
-        <v>5.904895</v>
+        <v>2.356055</v>
       </c>
       <c r="O25">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="P25">
-        <v>0.01523798341839479</v>
+        <v>0.00521868678892747</v>
       </c>
       <c r="Q25">
-        <v>4513.846104153457</v>
+        <v>3268.296117128019</v>
       </c>
       <c r="R25">
-        <v>40624.61493738111</v>
+        <v>29414.66505415217</v>
       </c>
       <c r="S25">
-        <v>0.007950826248746152</v>
+        <v>0.002885477662083756</v>
       </c>
       <c r="T25">
-        <v>0.007950826248746153</v>
+        <v>0.002885477662083756</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H26">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.26494466666667</v>
+        <v>20.486157</v>
       </c>
       <c r="N26">
-        <v>57.794834</v>
+        <v>61.458471</v>
       </c>
       <c r="O26">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="P26">
-        <v>0.1491435024942661</v>
+        <v>0.1361311644572737</v>
       </c>
       <c r="Q26">
-        <v>44179.78410980988</v>
+        <v>85254.58112562099</v>
       </c>
       <c r="R26">
-        <v>397618.0569882889</v>
+        <v>767291.2301305889</v>
       </c>
       <c r="S26">
-        <v>0.07781961968995665</v>
+        <v>0.07526863558631795</v>
       </c>
       <c r="T26">
-        <v>0.07781961968995667</v>
+        <v>0.07526863558631794</v>
       </c>
     </row>
   </sheetData>
